--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605191.7706933393</v>
+        <v>689257.6331314583</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6464931.541053755</v>
+        <v>8088944.869226767</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9334883.938457383</v>
+        <v>8551844.016552845</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>155.1558399708086</v>
+        <v>39.70122005611979</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,10 +740,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>86.9860311743163</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -786,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>137.5750138932992</v>
+        <v>53.53696330591268</v>
       </c>
       <c r="T3" t="n">
-        <v>192.7632183107638</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -856,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.59469128425545</v>
+        <v>34.10833718734057</v>
       </c>
       <c r="R4" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>144.2957156879721</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>201.6622187863182</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933827</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>146.8428862394535</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>245.3721440727414</v>
       </c>
       <c r="X8" t="n">
-        <v>201.6622187863195</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804553998</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>11.57333599768744</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1300,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>29.85116173898106</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>61.36917500886968</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>274.3094752533441</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>18.88595192024711</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657079</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>103.5078235545811</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>106.4735778903236</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1607,19 +1609,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>57.89934023899488</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>32.97950884736245</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>93.35882079147999</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>117.7126336312588</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1850,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612781</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>284.8316859696381</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1923,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>54.7147473859696</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>87.62154955555324</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>195.137902069968</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>243.2391485592445</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>87.93270968653111</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>88.89700561060577</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>334.3847524867058</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>229.7965692041367</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>5.740935925794101</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>81.4608434426853</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>213.6362495304041</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>126.841522644149</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>14.94679283899074</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>89.79171265358551</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>75.45713216103655</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2810,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>146.6761581385882</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -3001,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>47.38664856090042</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>78.78083674901981</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>208.6902559978749</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
@@ -3089,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3156,7 +3158,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414544</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3193,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>101.4273232270212</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>87.93270968653111</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,16 +3268,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>99.59933623926837</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>186.6141597285327</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>5.546312764596341</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3478,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>180.3341921158547</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3509,13 +3511,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3554,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>103.6708604288272</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>238.8071638495614</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>71.95935595147098</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>38.09653235049785</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>212.8327779391864</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>313.0734949773362</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3873,7 +3875,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>10.99506094022757</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>71.49777053864712</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>191.7041177524634</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3992,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>126.5388824951704</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4141,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.0522158910729</v>
       </c>
       <c r="V46" t="n">
-        <v>45.67405313867415</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1781.859986840534</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="C2" t="n">
-        <v>1412.897469900122</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="D2" t="n">
-        <v>1256.174399222538</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="E2" t="n">
-        <v>870.3861466242934</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="F2" t="n">
-        <v>459.4002418346859</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="G2" t="n">
-        <v>43.36919653809311</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>43.36919653809311</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>152.5078184301905</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>366.8168396232725</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>669.5878927711877</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>1038.148464578731</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>1417.286540135168</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>1761.960612545598</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.630958172449</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>2168.459826904656</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>2168.459826904656</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S2" t="n">
-        <v>2168.459826904656</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T2" t="n">
-        <v>2168.459826904656</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U2" t="n">
-        <v>2168.459826904656</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V2" t="n">
-        <v>2168.459826904656</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W2" t="n">
-        <v>2168.459826904656</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X2" t="n">
-        <v>2168.459826904656</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y2" t="n">
-        <v>2168.459826904656</v>
+        <v>560.6825636487949</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.233874491948</v>
+        <v>338.3894859156838</v>
       </c>
       <c r="C3" t="n">
-        <v>43.36919653809311</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="D3" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>89.55356510562336</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>246.6448318504523</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>504.1959674104402</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>824.1028628789497</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>1166.885386873582</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>1458.244633128148</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P3" t="n">
-        <v>1672.753048689049</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>1766.227047333489</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>1766.227047333489</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>1627.262386835207</v>
+        <v>696.0246079522367</v>
       </c>
       <c r="T3" t="n">
-        <v>1432.552065309183</v>
+        <v>506.6048229357519</v>
       </c>
       <c r="U3" t="n">
-        <v>1204.450475442447</v>
+        <v>506.6048229357519</v>
       </c>
       <c r="V3" t="n">
-        <v>969.2983672107043</v>
+        <v>506.6048229357519</v>
       </c>
       <c r="W3" t="n">
-        <v>715.0610104825028</v>
+        <v>506.6048229357519</v>
       </c>
       <c r="X3" t="n">
-        <v>507.2095102769699</v>
+        <v>506.6048229357519</v>
       </c>
       <c r="Y3" t="n">
-        <v>299.449211512016</v>
+        <v>506.6048229357519</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>92.71685897981541</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>185.7706748018945</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>287.1411594927338</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>393.9588065377468</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>472.3091036033668</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>520.2893470406002</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="Q4" t="n">
-        <v>497.4664265514533</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="R4" t="n">
-        <v>388.3019303235355</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="S4" t="n">
-        <v>189.122444707762</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T4" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>393.841617006275</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>393.841617006275</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>393.841617006275</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>393.841617006275</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>393.841617006275</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>393.841617006275</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.60582160917</v>
+        <v>393.841617006275</v>
       </c>
       <c r="W5" t="n">
-        <v>3325.60582160917</v>
+        <v>393.841617006275</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>393.841617006275</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>393.841617006275</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.8870058181845</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C7" t="n">
-        <v>920.8870058181845</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181845</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181845</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810571</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>1335.939124645065</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>1335.939124645065</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1335.939124645065</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811075</v>
+        <v>287.7589731305112</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999805</v>
+        <v>287.7589731305112</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387292</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.05354253334</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125855</v>
+        <v>1754.536808951984</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619335</v>
+        <v>1615.572148453702</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297191</v>
+        <v>1420.861826927678</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431606</v>
+        <v>1192.760237060942</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199864</v>
+        <v>957.6081288291996</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471662</v>
+        <v>703.3707721009979</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266129</v>
+        <v>495.5192718954651</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>287.7589731305112</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>490.1366584153657</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>322.003829010384</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025388</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>417.6040489720648</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>128.5011820977084</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>66.51211643218342</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>66.51211643218342</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218342</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218342</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1955.701599376001</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="C11" t="n">
-        <v>1955.701599376001</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D11" t="n">
-        <v>1597.435900769251</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E11" t="n">
-        <v>1211.647648171007</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>800.6617433813992</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>385.5892932263957</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.39124739121</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5063,28 +5065,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3072.075344883007</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2719.306689612893</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>2345.840931351813</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>1955.701599376001</v>
+        <v>1679.432908808198</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
         <v>2096.912393410638</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>417.6040489720648</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="C13" t="n">
-        <v>417.6040489720648</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="D13" t="n">
-        <v>417.6040489720648</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="E13" t="n">
-        <v>417.6040489720648</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>417.6040489720648</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K13" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S13" t="n">
-        <v>639.3706644025388</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T13" t="n">
-        <v>417.6040489720648</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U13" t="n">
-        <v>417.6040489720648</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V13" t="n">
-        <v>417.6040489720648</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="W13" t="n">
-        <v>417.6040489720648</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="X13" t="n">
-        <v>417.6040489720648</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="Y13" t="n">
-        <v>417.6040489720648</v>
+        <v>729.2011216450112</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796261</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C14" t="n">
-        <v>921.7704558796261</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D14" t="n">
-        <v>921.7704558796261</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E14" t="n">
-        <v>535.9822032813818</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F14" t="n">
-        <v>124.9962984917742</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3292.293186409815</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3038.762709683652</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2707.699822340081</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>2354.931167069967</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943748</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C16" t="n">
-        <v>751.950822890278</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D16" t="n">
-        <v>601.8341834779422</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E16" t="n">
-        <v>453.9210898955491</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>307.0311423976387</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372933</v>
@@ -5443,43 +5445,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181849</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181849</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2217.803762225667</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C17" t="n">
-        <v>1848.841245285255</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D17" t="n">
-        <v>1490.575546678504</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.78729408026</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F17" t="n">
-        <v>693.8013892906527</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5525,40 +5527,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W17" t="n">
-        <v>2994.5429342656</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X17" t="n">
-        <v>2994.5429342656</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2604.403602289789</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218342</v>
+        <v>289.482374659454</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218342</v>
+        <v>289.482374659454</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>289.482374659454</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>289.482374659454</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>289.482374659454</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>121.7795380341729</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>121.7795380341729</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
@@ -5680,43 +5682,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T19" t="n">
-        <v>699.1203903877109</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U19" t="n">
-        <v>699.1203903877109</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V19" t="n">
-        <v>444.4359021818241</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W19" t="n">
-        <v>155.0187321448635</v>
+        <v>699.120390387711</v>
       </c>
       <c r="X19" t="n">
-        <v>66.51211643218342</v>
+        <v>471.1308394896937</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.51211643218342</v>
+        <v>471.1308394896937</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1418.660964416652</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C20" t="n">
-        <v>1418.660964416652</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D20" t="n">
-        <v>1060.395265809902</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E20" t="n">
-        <v>674.6070132116577</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>263.6211084220501</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5774,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W20" t="n">
-        <v>2182.266054653544</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X20" t="n">
-        <v>1808.800296392464</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y20" t="n">
-        <v>1418.660964416652</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962287</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181849</v>
+        <v>3236.784902733886</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181849</v>
+        <v>3015.018287303412</v>
       </c>
       <c r="U22" t="n">
-        <v>631.7841389438285</v>
+        <v>2725.915420429056</v>
       </c>
       <c r="V22" t="n">
-        <v>377.0996507379416</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="W22" t="n">
-        <v>287.3046955757135</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="X22" t="n">
-        <v>287.3046955757135</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1822.632236038042</v>
+        <v>1955.701599376001</v>
       </c>
       <c r="C23" t="n">
-        <v>1453.669719097631</v>
+        <v>1955.701599376001</v>
       </c>
       <c r="D23" t="n">
-        <v>1095.40402049088</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E23" t="n">
-        <v>709.6157678926361</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F23" t="n">
-        <v>298.6298631030285</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -6020,19 +6022,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W23" t="n">
-        <v>2972.837166339056</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X23" t="n">
-        <v>2599.371408077976</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y23" t="n">
-        <v>2209.232076102164</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="24">
@@ -6069,7 +6071,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L24" t="n">
         <v>765.1517452158131</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.5121164321834</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="C25" t="n">
-        <v>66.5121164321834</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="D25" t="n">
-        <v>66.5121164321834</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="E25" t="n">
-        <v>66.5121164321834</v>
+        <v>483.5567421988311</v>
       </c>
       <c r="F25" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I25" t="n">
         <v>66.5121164321834</v>
@@ -6178,19 +6180,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>583.9188373671614</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W25" t="n">
-        <v>294.5016673302007</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X25" t="n">
-        <v>66.5121164321834</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.5121164321834</v>
+        <v>631.4698357812242</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1418.660964416652</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C26" t="n">
-        <v>1418.660964416652</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D26" t="n">
-        <v>1418.660964416652</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E26" t="n">
-        <v>1032.872711818408</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F26" t="n">
-        <v>621.8868070288001</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
@@ -6257,19 +6259,19 @@
         <v>3119.628073993392</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>2991.505323847787</v>
       </c>
       <c r="V26" t="n">
-        <v>2535.034709923658</v>
+        <v>2660.442436504216</v>
       </c>
       <c r="W26" t="n">
-        <v>2182.266054653544</v>
+        <v>2307.673781234102</v>
       </c>
       <c r="X26" t="n">
-        <v>1808.800296392464</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="Y26" t="n">
-        <v>1418.660964416652</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="27">
@@ -6303,13 +6305,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2785.150955630592</v>
+        <v>547.5526568147715</v>
       </c>
       <c r="C28" t="n">
-        <v>2785.150955630592</v>
+        <v>378.6164738868646</v>
       </c>
       <c r="D28" t="n">
-        <v>2785.150955630592</v>
+        <v>228.4998344745289</v>
       </c>
       <c r="E28" t="n">
-        <v>2785.150955630592</v>
+        <v>228.4998344745289</v>
       </c>
       <c r="F28" t="n">
-        <v>2785.150955630592</v>
+        <v>81.6098869766185</v>
       </c>
       <c r="G28" t="n">
-        <v>2617.448119005311</v>
+        <v>81.6098869766185</v>
       </c>
       <c r="H28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N28" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O28" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P28" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>3234.907121959084</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T28" t="n">
-        <v>3013.14050652861</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U28" t="n">
-        <v>3013.14050652861</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V28" t="n">
-        <v>3013.14050652861</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="W28" t="n">
-        <v>3013.14050652861</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="X28" t="n">
-        <v>2785.150955630592</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="Y28" t="n">
-        <v>2785.150955630592</v>
+        <v>729.2011216450112</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1137.43386558517</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C29" t="n">
-        <v>1137.43386558517</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D29" t="n">
-        <v>779.1681669784198</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E29" t="n">
-        <v>779.1681669784198</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6488,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>2971.470338499869</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2640.407451156298</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2287.638795886184</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>1914.173037625104</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1524.033705649292</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="30">
@@ -6543,10 +6545,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6649,16 +6651,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>873.0217042415178</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U31" t="n">
-        <v>583.9188373671614</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V31" t="n">
-        <v>583.9188373671614</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W31" t="n">
-        <v>294.5016673302007</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X31" t="n">
         <v>66.5121164321834</v>
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1032.061124352531</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C32" t="n">
-        <v>663.0986074121195</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D32" t="n">
-        <v>663.0986074121195</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E32" t="n">
-        <v>277.3103548138752</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>277.3103548138752</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329465</v>
@@ -6722,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2182.266054653544</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X32" t="n">
-        <v>1808.800296392465</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y32" t="n">
-        <v>1418.660964416653</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2471.23093222317</v>
+        <v>3036.188651572209</v>
       </c>
       <c r="C34" t="n">
-        <v>2471.23093222317</v>
+        <v>3036.188651572209</v>
       </c>
       <c r="D34" t="n">
-        <v>2471.23093222317</v>
+        <v>3036.188651572209</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.23093222317</v>
+        <v>2888.275557989816</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.23093222317</v>
+        <v>2741.385610491906</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.23093222317</v>
+        <v>2573.682773866625</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760609</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.36454002828</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950637</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249835</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279682</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497872</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.68505425063</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S34" t="n">
-        <v>3236.784902733887</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T34" t="n">
-        <v>3015.018287303413</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U34" t="n">
-        <v>2725.915420429057</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V34" t="n">
-        <v>2471.23093222317</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W34" t="n">
-        <v>2471.23093222317</v>
+        <v>3036.188651572209</v>
       </c>
       <c r="X34" t="n">
-        <v>2471.23093222317</v>
+        <v>3036.188651572209</v>
       </c>
       <c r="Y34" t="n">
-        <v>2471.23093222317</v>
+        <v>3036.188651572209</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>921.7704558796261</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C35" t="n">
-        <v>821.1650657389509</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D35" t="n">
-        <v>821.1650657389509</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E35" t="n">
-        <v>821.1650657389509</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
         <v>821.1650657389509</v>
@@ -6932,55 +6934,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912079</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180639</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.50962791956</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.370295943748</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7013,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2640.167115151077</v>
+        <v>2623.050455131166</v>
       </c>
       <c r="C37" t="n">
-        <v>2471.23093222317</v>
+        <v>2623.050455131166</v>
       </c>
       <c r="D37" t="n">
-        <v>2471.23093222317</v>
+        <v>2623.050455131166</v>
       </c>
       <c r="E37" t="n">
-        <v>2471.23093222317</v>
+        <v>2623.050455131166</v>
       </c>
       <c r="F37" t="n">
-        <v>2471.23093222317</v>
+        <v>2623.050455131166</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.23093222317</v>
+        <v>2623.050455131166</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.23093222317</v>
+        <v>2476.833268349024</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.053685760609</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.36454002828</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950637</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249835</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279682</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497872</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.68505425063</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366699</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193525</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.322864763051</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U37" t="n">
-        <v>2640.167115151077</v>
+        <v>2623.050455131166</v>
       </c>
       <c r="V37" t="n">
-        <v>2640.167115151077</v>
+        <v>2623.050455131166</v>
       </c>
       <c r="W37" t="n">
-        <v>2640.167115151077</v>
+        <v>2623.050455131166</v>
       </c>
       <c r="X37" t="n">
-        <v>2640.167115151077</v>
+        <v>2623.050455131166</v>
       </c>
       <c r="Y37" t="n">
-        <v>2640.167115151077</v>
+        <v>2623.050455131166</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1133.32083113111</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C38" t="n">
-        <v>764.3583141906979</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D38" t="n">
-        <v>406.0926155839475</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E38" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F38" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
         <v>406.0926155839475</v>
@@ -7169,7 +7171,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
@@ -7181,7 +7183,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7196,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3220.887780771972</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>2967.357304045808</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V38" t="n">
-        <v>2636.294416702237</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W38" t="n">
-        <v>2283.525761432123</v>
+        <v>3084.386464185371</v>
       </c>
       <c r="X38" t="n">
-        <v>1910.060003171043</v>
+        <v>2710.920705924291</v>
       </c>
       <c r="Y38" t="n">
-        <v>1519.920671195231</v>
+        <v>2320.781373948479</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>936.5735814686079</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>846.0716871064755</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>827.0643955080134</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>139.1983345649824</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962287</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L40" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>831.0565485757129</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S40" t="n">
-        <v>831.0565485757129</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="T40" t="n">
-        <v>831.0565485757129</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U40" t="n">
-        <v>831.0565485757129</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="V40" t="n">
-        <v>831.0565485757129</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="W40" t="n">
-        <v>541.6393785387522</v>
+        <v>2873.671976196939</v>
       </c>
       <c r="X40" t="n">
-        <v>541.6393785387522</v>
+        <v>2873.671976196939</v>
       </c>
       <c r="Y40" t="n">
-        <v>320.8467993952221</v>
+        <v>2652.879397053409</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1032.061124352531</v>
+        <v>1506.396382525582</v>
       </c>
       <c r="C41" t="n">
-        <v>1032.061124352531</v>
+        <v>1137.43386558517</v>
       </c>
       <c r="D41" t="n">
-        <v>1032.061124352531</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="E41" t="n">
-        <v>1032.061124352531</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F41" t="n">
-        <v>621.0752195629236</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
@@ -7418,7 +7420,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7433,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>2535.034709923659</v>
+        <v>3009.369968096709</v>
       </c>
       <c r="W41" t="n">
-        <v>2182.266054653544</v>
+        <v>2656.601312826595</v>
       </c>
       <c r="X41" t="n">
-        <v>1808.800296392465</v>
+        <v>2283.135554565515</v>
       </c>
       <c r="Y41" t="n">
-        <v>1418.660964416653</v>
+        <v>1892.996222589704</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>321.1611025578263</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="C43" t="n">
-        <v>321.1611025578263</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D43" t="n">
-        <v>321.1611025578263</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E43" t="n">
-        <v>321.1611025578263</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F43" t="n">
-        <v>321.1611025578263</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
@@ -7591,28 +7593,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>831.0565485757129</v>
+        <v>848.6670355771272</v>
       </c>
       <c r="S43" t="n">
-        <v>831.0565485757129</v>
+        <v>848.6670355771272</v>
       </c>
       <c r="T43" t="n">
-        <v>831.0565485757129</v>
+        <v>848.6670355771272</v>
       </c>
       <c r="U43" t="n">
-        <v>541.9536817013565</v>
+        <v>848.6670355771272</v>
       </c>
       <c r="V43" t="n">
-        <v>541.9536817013565</v>
+        <v>848.6670355771272</v>
       </c>
       <c r="W43" t="n">
-        <v>541.9536817013565</v>
+        <v>848.6670355771272</v>
       </c>
       <c r="X43" t="n">
-        <v>541.9536817013565</v>
+        <v>848.6670355771272</v>
       </c>
       <c r="Y43" t="n">
-        <v>321.1611025578263</v>
+        <v>627.8744564335971</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1811.579746109089</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C44" t="n">
-        <v>1811.579746109089</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7670,28 +7672,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W44" t="n">
-        <v>2961.784676410102</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X44" t="n">
-        <v>2588.318918149022</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y44" t="n">
-        <v>2198.179586173211</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7724,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7731,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>364.5418494269122</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C46" t="n">
-        <v>364.5418494269122</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D46" t="n">
-        <v>214.4252100145765</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
         <v>332.3555681596505</v>
@@ -7837,19 +7839,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181849</v>
+        <v>639.016080675687</v>
       </c>
       <c r="V46" t="n">
-        <v>874.7515986074029</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="W46" t="n">
-        <v>585.3344285704424</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="X46" t="n">
-        <v>585.3344285704424</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="Y46" t="n">
-        <v>364.5418494269122</v>
+        <v>384.3315924698002</v>
       </c>
     </row>
   </sheetData>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>199.5272016498743</v>
+        <v>314.9818215645632</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>304.326804756183</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,22 +22594,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>130.8133087092504</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22626,10 +22628,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>85.72246781399944</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22638,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.5072338470352</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>94.50081326185511</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>36.2994675790488</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.66886087721423</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>96.23328138503695</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>7.884010625681299</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>18.15430933923916</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>34.57770336425669</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>77.07210304633045</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>85.99672338893586</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>168.0688818921509</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>40.60044802738304</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22945,28 +22947,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>1.772586778758807</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>80.60642335625593</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23021,13 +23023,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23036,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>103.8688246446716</v>
       </c>
       <c r="X8" t="n">
-        <v>168.0688818921495</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.09552487952687</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23188,16 +23190,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5698862839502</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23221,22 +23223,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>190.7684683149583</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>20.29828913397631</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>367.3519867358065</v>
       </c>
     </row>
     <row r="12">
@@ -23422,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>42.92613909198806</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>59.55223036870458</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -23495,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>353.0223854144585</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>170.9384612922577</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>72.66698746754824</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23701,16 +23703,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>101.8363156449104</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23738,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>255.1805474109837</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>126.0900396838153</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>41.63767302386849</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>138.0881058334839</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>215.7838235834854</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24020,19 +24022,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>126.4919521192246</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>101.8363156449108</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>197.6259927259852</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>20.29828913397716</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>181.1251564493168</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,7 +24262,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24370,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>139.6801120971371</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,16 +24420,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>204.7509947629276</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24446,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>197.2854761230493</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>124.1536493147529</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>129.80822207533</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24649,10 +24651,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>99.97731267785639</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>307.276709502444</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>104.3190138203138</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24889,19 +24891,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>172.1623007152688</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>303.9530049144607</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>202.2314696555786</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24977,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25081,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>43.32769168729961</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25123,19 +25125,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>101.8363156449108</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,16 +25156,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>265.6735555317392</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>168.0688818921502</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25202,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25327,10 +25329,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>90.80610764524175</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>105.8776460897582</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25397,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25442,16 +25444,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>100.247109710793</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>110.4338048678516</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>95.28746514715685</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>248.4264659860931</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>198.0889477142671</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,13 +25681,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>14.67876349279868</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>155.0307473188006</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>17.43438213140021</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25840,7 +25842,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>162.9789238682196</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>222.7020862222426</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26029,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26077,19 +26079,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>7.159622314540002</v>
       </c>
       <c r="V46" t="n">
-        <v>206.4635901851539</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>645633.2065222077</v>
+        <v>416599.1113786228</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>822602.443421874</v>
+        <v>416599.1113786225</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>822602.443421874</v>
+        <v>645633.2065222074</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218741</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="15">
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>258253.2826088829</v>
+        <v>166639.644551449</v>
       </c>
       <c r="C2" t="n">
+        <v>166639.644551449</v>
+      </c>
+      <c r="D2" t="n">
+        <v>258253.2826088828</v>
+      </c>
+      <c r="E2" t="n">
+        <v>329040.9773687491</v>
+      </c>
+      <c r="F2" t="n">
+        <v>329040.977368749</v>
+      </c>
+      <c r="G2" t="n">
         <v>329040.9773687492</v>
-      </c>
-      <c r="D2" t="n">
-        <v>329040.9773687491</v>
-      </c>
-      <c r="E2" t="n">
-        <v>329040.9773687492</v>
-      </c>
-      <c r="F2" t="n">
-        <v>329040.9773687492</v>
-      </c>
-      <c r="G2" t="n">
-        <v>329040.9773687491</v>
       </c>
       <c r="H2" t="n">
         <v>329040.9773687492</v>
       </c>
       <c r="I2" t="n">
+        <v>329040.9773687492</v>
+      </c>
+      <c r="J2" t="n">
         <v>329040.9773687493</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>329040.9773687492</v>
       </c>
-      <c r="K2" t="n">
-        <v>329040.9773687493</v>
-      </c>
       <c r="L2" t="n">
-        <v>329040.9773687494</v>
+        <v>329040.9773687492</v>
       </c>
       <c r="M2" t="n">
         <v>329040.9773687492</v>
@@ -26350,10 +26352,10 @@
         <v>329040.9773687492</v>
       </c>
       <c r="O2" t="n">
-        <v>329040.9773687491</v>
+        <v>329040.9773687493</v>
       </c>
       <c r="P2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687493</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1004321.885230094</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>308422.1921421485</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>371558.5249487661</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>276030.74576691</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>141841.1257376604</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>74453.08759127784</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>89743.37813127032</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>72091.35261608614</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>384.3219252469141</v>
+        <v>137.800118072334</v>
       </c>
       <c r="C4" t="n">
-        <v>584.646989006123</v>
+        <v>137.800118072334</v>
       </c>
       <c r="D4" t="n">
-        <v>584.646989006123</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85199.0818558723</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26485,7 +26487,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139328</v>
@@ -26497,19 +26499,19 @@
         <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-831652.0064023305</v>
+        <v>-481840.8584990823</v>
       </c>
       <c r="C6" t="n">
-        <v>-87899.80232379875</v>
+        <v>109516.0440217631</v>
       </c>
       <c r="D6" t="n">
-        <v>220522.3898183497</v>
+        <v>-198888.6461210025</v>
       </c>
       <c r="E6" t="n">
-        <v>254149.9898183497</v>
+        <v>-21880.75594856028</v>
       </c>
       <c r="F6" t="n">
-        <v>254149.9898183498</v>
+        <v>254149.9898183496</v>
       </c>
       <c r="G6" t="n">
         <v>254149.9898183497</v>
@@ -26540,28 +26542,28 @@
         <v>254149.9898183498</v>
       </c>
       <c r="I6" t="n">
-        <v>254149.9898183499</v>
+        <v>254149.9898183498</v>
       </c>
       <c r="J6" t="n">
-        <v>112308.8640806894</v>
+        <v>205085.0450898052</v>
       </c>
       <c r="K6" t="n">
-        <v>179696.902227072</v>
+        <v>254149.9898183497</v>
       </c>
       <c r="L6" t="n">
-        <v>254149.9898183499</v>
+        <v>164406.6116870794</v>
       </c>
       <c r="M6" t="n">
-        <v>254149.9898183498</v>
+        <v>182058.6372022636</v>
       </c>
       <c r="N6" t="n">
         <v>254149.9898183497</v>
       </c>
       <c r="O6" t="n">
-        <v>254149.9898183497</v>
+        <v>254149.9898183498</v>
       </c>
       <c r="P6" t="n">
-        <v>254149.9898183497</v>
+        <v>254149.9898183499</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376848</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261639</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022925</v>
@@ -26817,19 +26819,19 @@
         <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376848</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>236.0660360556133</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>305.2407236247795</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>236.0660360556142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261639</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>289.2864986761285</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>289.2864986761293</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261639</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>289.2864986761285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>289.2864986761293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261639</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>289.2864986761285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>289.2864986761293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.432002671508278</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>35.14799735958416</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>132.312282993323</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>291.286936740926</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>436.5636098258715</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>541.5957615840431</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>602.6296390934783</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>612.3808166839013</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>578.2538401190908</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>493.5262741662302</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6176784928398</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>78.20676087699496</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>15.02359169452749</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.836283316175398</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>17.73463097464134</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>63.2229124209512</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>173.4885040076063</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>296.5194861913579</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>398.7070419616801</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>465.2723121730381</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>477.5866858152847</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>436.8985133884509</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>350.6495746475634</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>234.3999545349508</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>114.0106430867497</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>34.10815721053861</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>7.40151038405785</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.539478247526972</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>13.68736114619436</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>46.29630948017478</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>178.8593818490428</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>228.8784296368737</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>241.3202129282508</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>235.582157642014</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>217.5982526595398</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>186.1928964099894</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.9103103451904</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>69.22054011153094</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>26.82890727735641</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>6.577770693978881</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054954</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32008,7 +32010,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
         <v>738.1512123099059</v>
@@ -32552,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32789,10 +32791,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -33023,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33035,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33503,7 +33505,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33655,7 +33657,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953979</v>
       </c>
       <c r="K35" t="n">
         <v>557.281137600381</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33752,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34211,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353162</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34451,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>110.2410322142397</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>216.4737587808909</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>305.8293466140559</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>372.2834058662056</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>382.9677530873104</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>348.155628697404</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>262.2932784109606</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.3119886183904</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>46.65087734093964</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>158.6780472169989</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>260.1526621818059</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>323.1382782510198</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>346.2449737319514</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>294.3022689440064</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>216.6751672332332</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.41818044892926</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>49.84612367850738</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>93.99375335563545</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>102.3944289806457</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>107.8966131767808</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>79.14171420769699</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
-        <v>48.46489236084179</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687138</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36437,10 +36439,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36683,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36911,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687116</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37385,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37400,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609572</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38099,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>689257.6331314583</v>
+        <v>643980.4963358856</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8088944.869226767</v>
+        <v>6110993.067254424</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8551844.016552845</v>
+        <v>9511853.175357049</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>39.70122005611979</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>187.52558716632</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>63.25786276724374</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -746,19 +746,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>53.53696330591268</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>187.52558716632</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.10833718734057</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>81.77200357366338</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5255871663199</v>
+        <v>403.5140811170496</v>
       </c>
       <c r="H5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>165.1725371760945</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U6" t="n">
-        <v>187.5255871663199</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
-        <v>187.5255871663199</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>187.5255871663199</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>165.1725371760944</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>62.14231362775511</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>46.27144787880131</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>245.3721440727414</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>11.57333599768744</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>29.85116173898106</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>12.40418031676334</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>243.4420291455263</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.88595192024711</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
         <v>89.59687541851115</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>103.5078235545811</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>19.52918235370607</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>32.97950884736245</v>
+        <v>131.9809553984402</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>117.7126336312588</v>
+        <v>93.35882079148004</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,19 +1846,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>126.7498226612781</v>
+        <v>129.1380851356419</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>54.7147473859696</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>83.3272786184954</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>328.4290506805506</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>243.2391485592445</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>30.93447513354304</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>87.93270968653111</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>334.3847524867058</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>255.7867968162904</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>5.740935925794101</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>126.841522644149</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>282.6988068886399</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>14.94679283899074</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>57.64344654169977</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>75.45713216103655</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>8.296101769923858</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>107.016875563511</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.78083674901981</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>279.8498136999439</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414544</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3198,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>101.4273232270212</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>57.0793459185109</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>186.6141597285327</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>312.0258607690224</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>5.546312764596341</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3480,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>14.30838385682689</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>3.657500457872759</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>238.8071638495614</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>121.8718846072899</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>38.09653235049785</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>208.1933017729513</v>
       </c>
       <c r="V41" t="n">
-        <v>313.0734949773362</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.49777053864712</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>206.8973285420759</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>126.5388824951704</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>128.8771852996413</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>20.95866062610962</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.0522158910729</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.2627786323101</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>371.2627786323101</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>331.1605361513811</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>141.7407511348962</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>141.7407511348962</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652798</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652798</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487949</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487949</v>
+        <v>2008.078555102614</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487949</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>338.3894859156838</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>163.9364566345569</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476351</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>696.0246079522367</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>506.6048229357519</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>506.6048229357519</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>506.6048229357519</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>506.6048229357519</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>506.6048229357519</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>506.6048229357519</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910415</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.0020469733056</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>15.0020469733056</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>15.0020469733056</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>15.0020469733056</v>
+        <v>838.2890224104441</v>
       </c>
       <c r="U4" t="n">
-        <v>15.0020469733056</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>393.841617006275</v>
+        <v>1998.10447029351</v>
       </c>
       <c r="C5" t="n">
-        <v>393.841617006275</v>
+        <v>1629.141953353098</v>
       </c>
       <c r="D5" t="n">
-        <v>393.841617006275</v>
+        <v>1270.876254746348</v>
       </c>
       <c r="E5" t="n">
-        <v>393.841617006275</v>
+        <v>885.0880021481037</v>
       </c>
       <c r="F5" t="n">
-        <v>393.841617006275</v>
+        <v>474.1020973584961</v>
       </c>
       <c r="G5" t="n">
-        <v>204.4218319897903</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678478</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058939</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079184</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644753</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123826</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985582</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020263</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652795</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652795</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652795</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>560.6825636487947</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>393.841617006275</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>393.841617006275</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>393.841617006275</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>393.841617006275</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y5" t="n">
-        <v>393.841617006275</v>
+        <v>1998.10447029351</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.00204697330559</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>15.00204697330559</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>15.00204697330559</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>15.00204697330559</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>15.00204697330559</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330559</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330559</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330559</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024208</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772649</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140243</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>512.50005875466</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476347</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>739.598998701706</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652795</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652795</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652795</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652795</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>560.6825636487947</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>371.26277863231</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>181.8429936158252</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>15.00204697330559</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.00204697330559</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330559</v>
+        <v>676.468527222536</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330559</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330559</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330559</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330559</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330559</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330559</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330559</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230175</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170716</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396334</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828987</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828987</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>15.00204697330559</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>15.00204697330559</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>15.00204697330559</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>15.00204697330559</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>15.00204697330559</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>15.00204697330559</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330559</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330559</v>
+        <v>858.1169920527757</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>949.3392845809428</v>
+        <v>1980.946859214235</v>
       </c>
       <c r="C8" t="n">
-        <v>949.3392845809428</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>949.3392845809428</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>949.3392845809428</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>538.3533797913353</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>1914.852662567162</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>1583.789775223591</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>1335.939124645065</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X8" t="n">
-        <v>1335.939124645065</v>
+        <v>2367.546699278357</v>
       </c>
       <c r="Y8" t="n">
-        <v>1335.939124645065</v>
+        <v>2367.546699278357</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>287.7589731305112</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>287.7589731305112</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>138.8245634692599</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>138.8245634692599</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>138.8245634692599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8245634692599</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R9" t="n">
-        <v>1754.536808951984</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>1615.572148453702</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>1420.861826927678</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>1192.760237060942</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>957.6081288291996</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>703.3707721009979</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>495.5192718954651</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>287.7589731305112</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>520.2893470405991</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>520.2893470405991</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>520.2893470405991</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>490.1366584153657</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>322.003829010384</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>171.9636155141767</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>908.3575307507468</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>908.3575307507468</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>908.3575307507468</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>908.3575307507468</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1292.833068744076</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C11" t="n">
-        <v>1292.833068744076</v>
+        <v>881.8471639544687</v>
       </c>
       <c r="D11" t="n">
-        <v>934.5673701373257</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F11" t="n">
         <v>523.5814653477182</v>
@@ -5038,55 +5038,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y11" t="n">
-        <v>1679.432908808198</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>729.2011216450112</v>
+        <v>700.0944266746549</v>
       </c>
       <c r="C13" t="n">
-        <v>729.2011216450112</v>
+        <v>531.158243746748</v>
       </c>
       <c r="D13" t="n">
-        <v>729.2011216450112</v>
+        <v>381.0416043344122</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>233.1285107520191</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>86.23856325410875</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S13" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T13" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U13" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V13" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W13" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X13" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y13" t="n">
-        <v>729.2011216450112</v>
+        <v>700.0944266746549</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1204.726236768953</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C14" t="n">
-        <v>835.7637198285415</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D14" t="n">
-        <v>477.498021221791</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218343</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3292.293186409815</v>
+        <v>3192.291725247109</v>
       </c>
       <c r="U14" t="n">
-        <v>3038.762709683652</v>
+        <v>3192.291725247109</v>
       </c>
       <c r="V14" t="n">
-        <v>2707.699822340081</v>
+        <v>3192.291725247109</v>
       </c>
       <c r="W14" t="n">
-        <v>2354.931167069967</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X14" t="n">
-        <v>1981.465408808887</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y14" t="n">
-        <v>1591.326076833075</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218343</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218343</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T16" t="n">
-        <v>610.2994715124267</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="U16" t="n">
-        <v>321.1966046380703</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="V16" t="n">
-        <v>66.51211643218343</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="W16" t="n">
-        <v>66.51211643218343</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="X16" t="n">
-        <v>66.51211643218343</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.51211643218343</v>
+        <v>826.5851666348717</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796265</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C17" t="n">
-        <v>552.8079389392149</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="D17" t="n">
-        <v>194.5422403324644</v>
+        <v>1023.012981614817</v>
       </c>
       <c r="E17" t="n">
-        <v>66.51211643218343</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080138</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>289.482374659454</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>289.482374659454</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>289.482374659454</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>289.482374659454</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>289.482374659454</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>121.7795380341729</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>121.7795380341729</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S19" t="n">
-        <v>920.887005818185</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T19" t="n">
-        <v>699.120390387711</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U19" t="n">
-        <v>699.120390387711</v>
+        <v>440.0982547706545</v>
       </c>
       <c r="V19" t="n">
-        <v>699.120390387711</v>
+        <v>440.0982547706545</v>
       </c>
       <c r="W19" t="n">
-        <v>699.120390387711</v>
+        <v>150.6810847336939</v>
       </c>
       <c r="X19" t="n">
-        <v>471.1308394896937</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y19" t="n">
-        <v>471.1308394896937</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2303.170539913434</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C20" t="n">
-        <v>1934.208022973022</v>
+        <v>1610.105239813979</v>
       </c>
       <c r="D20" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912088</v>
@@ -5758,10 +5758,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5776,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W20" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X20" t="n">
-        <v>3079.909711953368</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y20" t="n">
-        <v>2689.770379977556</v>
+        <v>2365.667596818512</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2471.230932223169</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C22" t="n">
-        <v>2471.230932223169</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D22" t="n">
-        <v>2471.230932223169</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>2471.230932223169</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>2471.230932223169</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>3236.784902733886</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T22" t="n">
-        <v>3015.018287303412</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U22" t="n">
-        <v>2725.915420429056</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V22" t="n">
-        <v>2471.230932223169</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="W22" t="n">
-        <v>2471.230932223169</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="X22" t="n">
-        <v>2471.230932223169</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="Y22" t="n">
-        <v>2471.230932223169</v>
+        <v>729.2011216450112</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1955.701599376001</v>
+        <v>1878.169188758593</v>
       </c>
       <c r="C23" t="n">
-        <v>1955.701599376001</v>
+        <v>1509.206671818182</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>1150.940973211431</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6022,19 +6022,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V23" t="n">
-        <v>3072.075344883006</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W23" t="n">
-        <v>2719.306689612892</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X23" t="n">
-        <v>2345.840931351812</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y23" t="n">
-        <v>1955.701599376001</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="24">
@@ -6071,10 +6071,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>631.4698357812242</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>631.4698357812242</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>631.4698357812242</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>483.5567421988311</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
         <v>66.5121164321834</v>
@@ -6177,22 +6177,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U25" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V25" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W25" t="n">
-        <v>631.4698357812242</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X25" t="n">
-        <v>631.4698357812242</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y25" t="n">
-        <v>631.4698357812242</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1934.208022973022</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C26" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D26" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E26" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>2991.505323847787</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V26" t="n">
-        <v>2660.442436504216</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>2307.673781234102</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X26" t="n">
-        <v>1934.208022973022</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y26" t="n">
-        <v>1934.208022973022</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="27">
@@ -6305,13 +6305,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>547.5526568147715</v>
+        <v>551.0642295677644</v>
       </c>
       <c r="C28" t="n">
-        <v>378.6164738868646</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D28" t="n">
-        <v>228.4998344745289</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E28" t="n">
-        <v>228.4998344745289</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F28" t="n">
-        <v>81.6098869766185</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>81.6098869766185</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
         <v>66.5121164321834</v>
@@ -6408,28 +6408,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S28" t="n">
-        <v>729.2011216450112</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T28" t="n">
-        <v>729.2011216450112</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U28" t="n">
-        <v>729.2011216450112</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V28" t="n">
-        <v>729.2011216450112</v>
+        <v>551.0642295677644</v>
       </c>
       <c r="W28" t="n">
-        <v>729.2011216450112</v>
+        <v>551.0642295677644</v>
       </c>
       <c r="X28" t="n">
-        <v>729.2011216450112</v>
+        <v>551.0642295677644</v>
       </c>
       <c r="Y28" t="n">
-        <v>729.2011216450112</v>
+        <v>551.0642295677644</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1232.150970528558</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C29" t="n">
-        <v>1232.150970528558</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D29" t="n">
-        <v>1232.150970528558</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943747</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.5121164321834</v>
+        <v>511.2489900899279</v>
       </c>
       <c r="C31" t="n">
-        <v>66.5121164321834</v>
+        <v>342.312807162021</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>342.312807162021</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>342.312807162021</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>342.312807162021</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>174.60997053674</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T31" t="n">
-        <v>899.7166415493873</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U31" t="n">
-        <v>610.6137746750309</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V31" t="n">
-        <v>355.929286469144</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W31" t="n">
-        <v>66.5121164321834</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X31" t="n">
-        <v>66.5121164321834</v>
+        <v>692.8974549201677</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.5121164321834</v>
+        <v>692.8974549201677</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.167438673965</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G32" t="n">
         <v>406.0926155839475</v>
@@ -6700,25 +6700,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
         <v>3266.588755052368</v>
@@ -6727,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>3042.929242114277</v>
       </c>
       <c r="W32" t="n">
-        <v>2424.744041450753</v>
+        <v>2690.160586844163</v>
       </c>
       <c r="X32" t="n">
-        <v>2424.744041450753</v>
+        <v>2316.694828583083</v>
       </c>
       <c r="Y32" t="n">
-        <v>2424.744041450753</v>
+        <v>2316.694828583083</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
-        <v>936.573581468607</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I33" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3036.188651572209</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="C34" t="n">
-        <v>3036.188651572209</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D34" t="n">
-        <v>3036.188651572209</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E34" t="n">
-        <v>2888.275557989816</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F34" t="n">
-        <v>2741.385610491906</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>2573.682773866625</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.60582160917</v>
+        <v>729.201121645011</v>
       </c>
       <c r="V34" t="n">
-        <v>3325.60582160917</v>
+        <v>729.201121645011</v>
       </c>
       <c r="W34" t="n">
-        <v>3036.188651572209</v>
+        <v>439.7839516080504</v>
       </c>
       <c r="X34" t="n">
-        <v>3036.188651572209</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="Y34" t="n">
-        <v>3036.188651572209</v>
+        <v>382.1280466398575</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2175.400891308157</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="C35" t="n">
-        <v>1806.438374367745</v>
+        <v>1192.938255729499</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>834.6725571227489</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.60582160917</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W35" t="n">
-        <v>3325.60582160917</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X35" t="n">
-        <v>2952.14006334809</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y35" t="n">
-        <v>2562.000731372279</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2623.050455131166</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C37" t="n">
-        <v>2623.050455131166</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D37" t="n">
-        <v>2623.050455131166</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E37" t="n">
-        <v>2623.050455131166</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F37" t="n">
-        <v>2623.050455131166</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>2623.050455131166</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>2476.833268349024</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.60582160917</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S37" t="n">
-        <v>3133.919937435996</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T37" t="n">
-        <v>2912.153322005523</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U37" t="n">
-        <v>2623.050455131166</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="V37" t="n">
-        <v>2623.050455131166</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="W37" t="n">
-        <v>2623.050455131166</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="X37" t="n">
-        <v>2623.050455131166</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="Y37" t="n">
-        <v>2623.050455131166</v>
+        <v>403.1511359853714</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1934.181533884357</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C38" t="n">
-        <v>1565.219016943946</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D38" t="n">
-        <v>1206.953318337195</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>821.1650657389509</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W38" t="n">
-        <v>3084.386464185371</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X38" t="n">
-        <v>2710.920705924291</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y38" t="n">
-        <v>2320.781373948479</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D39" t="n">
         <v>618.1564155387305</v>
@@ -7241,46 +7241,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297192</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2471.230932223169</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="C40" t="n">
-        <v>2471.230932223169</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="D40" t="n">
-        <v>2471.230932223169</v>
+        <v>357.3178668022017</v>
       </c>
       <c r="E40" t="n">
-        <v>2471.230932223169</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F40" t="n">
-        <v>2471.230932223169</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S40" t="n">
-        <v>3133.919937435996</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T40" t="n">
-        <v>2912.153322005523</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="U40" t="n">
-        <v>2912.153322005523</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="V40" t="n">
-        <v>2912.153322005523</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="W40" t="n">
-        <v>2873.671976196939</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="X40" t="n">
-        <v>2873.671976196939</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="Y40" t="n">
-        <v>2652.879397053409</v>
+        <v>507.4345062145375</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1506.396382525582</v>
+        <v>1892.184635123826</v>
       </c>
       <c r="C41" t="n">
-        <v>1137.43386558517</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D41" t="n">
-        <v>779.1681669784198</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E41" t="n">
         <v>779.1681669784198</v>
@@ -7405,10 +7405,10 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912088</v>
@@ -7423,40 +7423,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>3005.018888719142</v>
       </c>
       <c r="V41" t="n">
-        <v>3009.369968096709</v>
+        <v>3005.018888719142</v>
       </c>
       <c r="W41" t="n">
-        <v>2656.601312826595</v>
+        <v>2652.250233449028</v>
       </c>
       <c r="X41" t="n">
-        <v>2283.135554565515</v>
+        <v>2278.784475187948</v>
       </c>
       <c r="Y41" t="n">
-        <v>1892.996222589704</v>
+        <v>2278.784475187948</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I42" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L42" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>627.8744564335971</v>
+        <v>530.2513404403937</v>
       </c>
       <c r="C43" t="n">
-        <v>627.8744564335971</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D43" t="n">
-        <v>477.7578170212613</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E43" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372932</v>
@@ -7593,28 +7593,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>848.6670355771272</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>848.6670355771272</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>848.6670355771272</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U43" t="n">
-        <v>848.6670355771272</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V43" t="n">
-        <v>848.6670355771272</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W43" t="n">
-        <v>848.6670355771272</v>
+        <v>711.8998052706335</v>
       </c>
       <c r="X43" t="n">
-        <v>848.6670355771272</v>
+        <v>711.8998052706335</v>
       </c>
       <c r="Y43" t="n">
-        <v>627.8744564335971</v>
+        <v>711.8998052706335</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2047.583838282732</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C44" t="n">
         <v>1678.62132134232</v>
@@ -7645,7 +7645,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912088</v>
@@ -7660,16 +7660,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
@@ -7678,22 +7678,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.60582160917</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W44" t="n">
-        <v>3197.788768583745</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X44" t="n">
-        <v>2824.323010322666</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y44" t="n">
-        <v>2434.183678346854</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>384.3315924698002</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="C46" t="n">
-        <v>384.3315924698002</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="D46" t="n">
-        <v>234.2149530574644</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="E46" t="n">
-        <v>234.2149530574644</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574644</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K46" t="n">
         <v>176.6457242372932</v>
@@ -7839,19 +7839,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>639.016080675687</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V46" t="n">
-        <v>384.3315924698002</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W46" t="n">
-        <v>384.3315924698002</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X46" t="n">
-        <v>384.3315924698002</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="Y46" t="n">
-        <v>384.3315924698002</v>
+        <v>87.68248070098099</v>
       </c>
     </row>
   </sheetData>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>314.9818215645632</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>306.4732379112253</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22634,22 +22634,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>96.23328138503695</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681299</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22749,28 +22749,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.57770336425669</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>137.7769457025058</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22786,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>225.5722460637382</v>
+        <v>7.407644536403893</v>
       </c>
       <c r="H5" t="n">
-        <v>129.3682389399025</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>25.91829388988691</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>85.99672338893586</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>38.33818124377106</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>45.2749999831054</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>64.16939599459974</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>40.60044802738304</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,34 +22941,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825418</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159726</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>80.60642335625593</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>156.4423397243397</v>
       </c>
     </row>
     <row r="8">
@@ -23023,13 +23023,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>319.0014438922062</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23083,10 +23083,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>103.8688246446716</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.09552487952687</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23181,25 +23181,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>115.5698862839502</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23223,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>207.1447689594059</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23244,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>121.8308626254812</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.3519867358065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>42.92613909198806</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>146.4966259053222</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>170.9384612922577</v>
+        <v>71.93701474117995</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23703,16 +23703,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>101.8363156449104</v>
+        <v>126.1901284846892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>255.1805474109837</v>
+        <v>252.7922849366199</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>41.63767302386849</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>142.3823767705418</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>26.25399094013238</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>126.4919521192246</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>148.8975050483943</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24177,16 +24177,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>101.8363156449108</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24208,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>20.29828913397716</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>126.1435732559714</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,10 +24262,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>139.6801120971371</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>147.4609218293966</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>124.1536493147529</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>66.54216182877315</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>129.80822207533</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>194.4941967821282</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>307.276709502444</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>373.6342683023379</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>37.73813935080977</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24891,19 +24891,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>198.5902886500596</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.9530049144607</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>47.90244477019098</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>43.32769168729961</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>168.6303094705262</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>168.0688818921502</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>69.90450930323942</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>90.80610764524175</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>271.903454348786</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>379.0763412056078</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>110.4338048678516</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>24.56207803927931</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25611,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>248.4264659860931</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>42.80187018595069</v>
       </c>
       <c r="V41" t="n">
-        <v>14.67876349279868</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>17.43438213140021</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>79.62566979451512</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>222.7020862222426</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>257.3607533564123</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>145.0671476329186</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26079,13 +26079,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>7.159622314540002</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>416599.1113786228</v>
+        <v>822602.4434218738</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>416599.1113786225</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>645633.2065222074</v>
+        <v>822602.4434218741</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822602.4434218737</v>
+        <v>822602.4434218741</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822602.4434218741</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822602.4434218737</v>
+        <v>822602.4434218741</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218738</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218738</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822602.4434218737</v>
+        <v>822602.4434218741</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822602.4434218741</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166639.644551449</v>
+        <v>329040.9773687492</v>
       </c>
       <c r="C2" t="n">
-        <v>166639.644551449</v>
+        <v>329040.9773687492</v>
       </c>
       <c r="D2" t="n">
-        <v>258253.2826088828</v>
+        <v>329040.9773687494</v>
       </c>
       <c r="E2" t="n">
-        <v>329040.9773687491</v>
+        <v>329040.9773687493</v>
       </c>
       <c r="F2" t="n">
-        <v>329040.977368749</v>
+        <v>329040.9773687493</v>
       </c>
       <c r="G2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687493</v>
       </c>
       <c r="H2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687493</v>
       </c>
       <c r="I2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687493</v>
       </c>
       <c r="J2" t="n">
         <v>329040.9773687493</v>
       </c>
       <c r="K2" t="n">
+        <v>329040.9773687493</v>
+      </c>
+      <c r="L2" t="n">
+        <v>329040.9773687493</v>
+      </c>
+      <c r="M2" t="n">
+        <v>329040.9773687493</v>
+      </c>
+      <c r="N2" t="n">
+        <v>329040.9773687493</v>
+      </c>
+      <c r="O2" t="n">
         <v>329040.9773687492</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>329040.9773687492</v>
-      </c>
-      <c r="M2" t="n">
-        <v>329040.9773687492</v>
-      </c>
-      <c r="N2" t="n">
-        <v>329040.9773687492</v>
-      </c>
-      <c r="O2" t="n">
-        <v>329040.9773687493</v>
-      </c>
-      <c r="P2" t="n">
-        <v>329040.9773687493</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.5249487661</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.74576691</v>
+        <v>1.82672692972119e-10</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127032</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608614</v>
+        <v>1.599055394763127e-10</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.800118072334</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>137.800118072334</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="D4" t="n">
-        <v>384.3219252469136</v>
+        <v>584.6469890061433</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061231</v>
@@ -26432,7 +26432,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="H4" t="n">
         <v>584.6469890061231</v>
@@ -26447,10 +26447,10 @@
         <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
+        <v>584.646989006123</v>
+      </c>
+      <c r="M4" t="n">
         <v>584.6469890061231</v>
-      </c>
-      <c r="M4" t="n">
-        <v>584.646989006123</v>
       </c>
       <c r="N4" t="n">
         <v>584.6469890061231</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161357</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="F5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="F5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139328</v>
@@ -26496,16 +26496,16 @@
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-481840.8584990823</v>
+        <v>-1112296.351287412</v>
       </c>
       <c r="C6" t="n">
-        <v>109516.0440217631</v>
+        <v>216448.3944401802</v>
       </c>
       <c r="D6" t="n">
-        <v>-198888.6461210025</v>
+        <v>216448.3944401805</v>
       </c>
       <c r="E6" t="n">
-        <v>-21880.75594856028</v>
+        <v>250075.99444018</v>
       </c>
       <c r="F6" t="n">
-        <v>254149.9898183496</v>
+        <v>250075.9944401803</v>
       </c>
       <c r="G6" t="n">
-        <v>254149.9898183497</v>
+        <v>250075.9944401804</v>
       </c>
       <c r="H6" t="n">
-        <v>254149.9898183498</v>
+        <v>250075.99444018</v>
       </c>
       <c r="I6" t="n">
-        <v>254149.9898183498</v>
+        <v>250075.9944401803</v>
       </c>
       <c r="J6" t="n">
-        <v>205085.0450898052</v>
+        <v>32544.79204290281</v>
       </c>
       <c r="K6" t="n">
-        <v>254149.9898183497</v>
+        <v>250075.9944401803</v>
       </c>
       <c r="L6" t="n">
-        <v>164406.6116870794</v>
+        <v>250075.9944401804</v>
       </c>
       <c r="M6" t="n">
-        <v>182058.6372022636</v>
+        <v>250075.99444018</v>
       </c>
       <c r="N6" t="n">
-        <v>254149.9898183497</v>
+        <v>250075.9944401802</v>
       </c>
       <c r="O6" t="n">
-        <v>254149.9898183498</v>
+        <v>250075.9944401802</v>
       </c>
       <c r="P6" t="n">
-        <v>254149.9898183499</v>
+        <v>250075.9944401802</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129046</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663199</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022925</v>
@@ -26816,22 +26816,22 @@
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247795</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556142</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598434</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761293</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598434</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761293</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598434</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761293</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954485</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043118</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470024</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924579</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829654</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550075</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820369</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620016</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114193</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784858</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>44.4710217664791</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33025,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33657,7 +33657,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
         <v>557.281137600381</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353162</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34453,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868052</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788333</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>112.184017997302</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197546</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504115</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405812</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>85.8349965691599</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065975</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781469</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848229</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855694</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764996</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646077</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061152</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520826</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400524</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K34" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L34" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M34" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N34" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O34" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P34" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609572</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38101,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
